--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524826.4267186821</v>
+        <v>569358.7188869762</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.23176477</v>
+        <v>7622616.185043049</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9305723.284927277</v>
+        <v>9004556.243164402</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>179.9896253540989</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>138.3956966967181</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>153.8072380324134</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="6">
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X6" t="n">
-        <v>145.3476714831896</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.51927372709503</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>379.4877523757126</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>7.397837941413282</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>138.2613113589522</v>
       </c>
     </row>
     <row r="10">
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>11.16209871159175</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>173.2727459667342</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>311.484277849853</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.00186811941006</v>
+        <v>95.54303370767153</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>65.72456219185446</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>37.28707743115319</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>116.7053164022069</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.6152590876036</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>6.284770091047516</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>32.23168924578677</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>50.43805308696707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>69.11504577288015</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>106.9151871668376</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>247.2137552618565</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>116.8722680820409</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>2.269068682537975</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>341.4035211481565</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>162.308803416235</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>68.85005436466994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>126.7498226612768</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>85.55919768629226</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>28.20584125154446</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>37.59617708813238</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>164.2018853278832</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>304.493083284727</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="E31" t="n">
-        <v>42.01201317445354</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>144.1136658022353</v>
       </c>
       <c r="G32" t="n">
-        <v>72.94739929678052</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3243,10 +3243,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>156.8179111106428</v>
+        <v>217.6848741855949</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>273.8361873678174</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>227.6636901231393</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>7.60108101544749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>131.573039120795</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>43.95604371558838</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>58.92805047992029</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847874</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>44.97789604059989</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>113.4630934215081</v>
       </c>
       <c r="G41" t="n">
-        <v>289.8718464375006</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.36155726322631</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>10.20389322926702</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>28.90798465780412</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>126.5388824951718</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>114.4746605491558</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>6.380068175848605</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330559</v>
+        <v>181.8429936158255</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678498</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058953</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="V2" t="n">
-        <v>583.2614020227597</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="W2" t="n">
-        <v>393.841617006275</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="X2" t="n">
-        <v>204.4218319897903</v>
+        <v>560.6825636487953</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323104</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024218</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>568.2946462874024</v>
       </c>
       <c r="U3" t="n">
-        <v>371.26277863231</v>
+        <v>568.2946462874024</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>568.2946462874024</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158252</v>
+        <v>378.8748612709175</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>378.8748612709175</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>261.7447676371619</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318186</v>
+        <v>304.4030637430764</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264752</v>
+        <v>490.0533950377333</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>652.7915984742834</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652795</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652795</v>
+        <v>557.305712968143</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487947</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="U4" t="n">
-        <v>371.26277863231</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897903</v>
+        <v>367.8859279516581</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>178.4661429351732</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>178.4661429351732</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="U5" t="n">
-        <v>820.2300801016544</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="V5" t="n">
-        <v>820.2300801016544</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="W5" t="n">
-        <v>820.2300801016544</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="X5" t="n">
-        <v>820.2300801016544</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="Y5" t="n">
-        <v>553.8524235344764</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374622</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="U6" t="n">
-        <v>629.9105956742757</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="V6" t="n">
-        <v>629.9105956742757</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="W6" t="n">
-        <v>375.673238946074</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X6" t="n">
-        <v>228.8574091650744</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.7933752329598</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>364.8571923050529</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>321.9084309645528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>321.9084309645528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0184834666425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0184834666425</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V7" t="n">
-        <v>800.1710318001377</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="W7" t="n">
-        <v>533.7933752329598</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7933752329598</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.7933752329598</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>812.4784111320066</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="C8" t="n">
-        <v>812.4784111320066</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="D8" t="n">
-        <v>812.4784111320066</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="E8" t="n">
-        <v>426.6901585337624</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="F8" t="n">
-        <v>426.6901585337624</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>21.033711606785</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058916</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>743.6410113056421</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794699</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="U8" t="n">
-        <v>1572.544009457208</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="V8" t="n">
-        <v>1572.544009457208</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="W8" t="n">
-        <v>1572.544009457208</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="X8" t="n">
-        <v>1199.078251196128</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1199.078251196128</v>
+        <v>393.8416170062753</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.4666540631119</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>359.013624781985</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>210.0792151207337</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>50.84176011527819</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>176.5082037232517</v>
+        <v>15.00204697330576</v>
       </c>
       <c r="K9" t="n">
-        <v>333.5994704680805</v>
+        <v>67.13418877024233</v>
       </c>
       <c r="L9" t="n">
-        <v>591.1506060280681</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M9" t="n">
-        <v>911.0575014965773</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>1253.840025491209</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O9" t="n">
-        <v>1545.199271745775</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013611</v>
+        <v>344.0797222513584</v>
       </c>
       <c r="V9" t="n">
-        <v>1371.531146781868</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="W9" t="n">
-        <v>1117.293790053667</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="X9" t="n">
-        <v>909.4422898481339</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="Y9" t="n">
-        <v>701.68199108318</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>54.64404372151907</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>54.64404372151907</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>100.3335179349385</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T10" t="n">
-        <v>1262.751521386271</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U10" t="n">
-        <v>973.6252003602942</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V10" t="n">
-        <v>718.9407121544074</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W10" t="n">
-        <v>429.5235421174468</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="X10" t="n">
-        <v>201.5339912194294</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.5339912194294</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.440264581601</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="C11" t="n">
-        <v>1196.477747641189</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D11" t="n">
-        <v>838.2120490344385</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5059,34 +5059,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906802</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645722</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1952.040104645722</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.1511359853714</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C13" t="n">
-        <v>234.2149530574644</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>234.2149530574644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574644</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>996.4353275498677</v>
       </c>
       <c r="Y13" t="n">
-        <v>452.6479724696239</v>
+        <v>775.6427484063375</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1628.17820394412</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1259.215687003708</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>900.9499883969577</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>515.1617357987134</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>104.1758310091058</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2014.778044008242</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y14" t="n">
-        <v>2014.778044008242</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="15">
@@ -5333,70 +5333,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>923.9108438165264</v>
+        <v>498.989058537402</v>
       </c>
       <c r="C16" t="n">
-        <v>754.9746608886195</v>
+        <v>498.989058537402</v>
       </c>
       <c r="D16" t="n">
-        <v>604.8580214762837</v>
+        <v>498.989058537402</v>
       </c>
       <c r="E16" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>310.0549803959802</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1513.842048484845</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1513.842048484845</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X16" t="n">
-        <v>1326.351887790296</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="Y16" t="n">
-        <v>1105.559308646766</v>
+        <v>680.6375233676417</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2038.144201386632</v>
+        <v>1642.972675199009</v>
       </c>
       <c r="C17" t="n">
-        <v>1669.18168444622</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1310.91598583947</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>925.1277332412255</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>514.141828451618</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>99.0693782966145</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W17" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X17" t="n">
-        <v>2424.744041450754</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y17" t="n">
-        <v>2424.744041450754</v>
+        <v>2029.572515263131</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5600,7 +5600,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C19" t="n">
         <v>679.1346335501037</v>
@@ -5664,13 +5664,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1365.477537412989</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1076.060367376028</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>848.0708164780106</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y19" t="n">
-        <v>848.0708164780106</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1278.358723975039</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>174.5072549845447</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2428.563654276052</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2055.097896014972</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>1664.958564039161</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>533.4780323548191</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C22" t="n">
-        <v>364.5418494269122</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D22" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1809.241752046027</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1587.475136615553</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.372269741197</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>1043.68778153531</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>754.2706114983492</v>
+        <v>1159.448589009555</v>
       </c>
       <c r="X22" t="n">
-        <v>754.2706114983492</v>
+        <v>931.4590381115378</v>
       </c>
       <c r="Y22" t="n">
-        <v>533.4780323548191</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.341567565138</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624727</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D23" t="n">
-        <v>985.1133520179762</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6001,16 +6001,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6019,22 +6019,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866152</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605072</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.94140762926</v>
+        <v>1935.366530930992</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.501411349798</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.51186045178</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.71928130825</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C26" t="n">
-        <v>552.8079389392135</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D26" t="n">
-        <v>194.542240332463</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E26" t="n">
-        <v>194.542240332463</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F26" t="n">
-        <v>194.542240332463</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
         <v>66.5121164321834</v>
@@ -6232,10 +6232,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6268,10 +6268,10 @@
         <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>1985.551954174283</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.8928126690276</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>241.8928126690276</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>241.8928126690276</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E28" t="n">
         <v>213.4020639300938</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1161.740577577775</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>872.3234075408147</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>644.3338566427974</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.5412774992673</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1642.972675199008</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C29" t="n">
-        <v>1274.010158258596</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D29" t="n">
-        <v>915.7444596518455</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>529.9562070536012</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>529.9562070536012</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.806928794324</v>
+        <v>2764.506573888334</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.038273524209</v>
+        <v>2411.73791861822</v>
       </c>
       <c r="X29" t="n">
-        <v>2029.572515263129</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y29" t="n">
-        <v>2029.572515263129</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>423.5412774992673</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C31" t="n">
-        <v>423.5412774992673</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="D31" t="n">
-        <v>423.5412774992673</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992673</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1295.236214140705</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C32" t="n">
-        <v>1295.236214140705</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D32" t="n">
-        <v>936.970515533955</v>
+        <v>937.4502275783891</v>
       </c>
       <c r="E32" t="n">
-        <v>551.1822629357107</v>
+        <v>551.6619749801448</v>
       </c>
       <c r="F32" t="n">
-        <v>140.1963581461031</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6724,13 +6724,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
         <v>2755.806928794324</v>
@@ -6739,13 +6739,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.975386180639</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y32" t="n">
-        <v>1681.836054204827</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C34" t="n">
         <v>679.1346335501037</v>
@@ -6846,16 +6846,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6891,19 +6891,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1547.126002243228</v>
+        <v>1196.541354485082</v>
       </c>
       <c r="W34" t="n">
-        <v>1257.708832206268</v>
+        <v>907.124184448121</v>
       </c>
       <c r="X34" t="n">
-        <v>1029.71928130825</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2235.550262878907</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.587745938496</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1508.322047331745</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>1122.533794733501</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>711.5478899438933</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G35" t="n">
-        <v>296.4754397888898</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
         <v>66.5121164321834</v>
@@ -6937,16 +6937,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6973,16 +6973,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410101</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>2609.016021139987</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X35" t="n">
-        <v>2235.550262878907</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y35" t="n">
-        <v>2235.550262878907</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690276</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C37" t="n">
-        <v>241.8928126690276</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="D37" t="n">
-        <v>241.8928126690276</v>
+        <v>494.2172172304616</v>
       </c>
       <c r="E37" t="n">
-        <v>241.8928126690276</v>
+        <v>346.3041236480685</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>199.4141761501582</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7140,7 +7140,7 @@
         <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992673</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>936.9705155339545</v>
       </c>
       <c r="E38" t="n">
         <v>892.5704713767946</v>
@@ -7177,13 +7177,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>679.1346335501037</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7368,16 +7368,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>1416.425065783662</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>1127.007895746702</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.575677523874</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>860.7830983803434</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038044</v>
+        <v>2006.793820398077</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097632</v>
+        <v>1637.831303457665</v>
       </c>
       <c r="D41" t="n">
-        <v>1453.669719097632</v>
+        <v>1279.565604850915</v>
       </c>
       <c r="E41" t="n">
-        <v>1067.881466499388</v>
+        <v>893.7773522526704</v>
       </c>
       <c r="F41" t="n">
-        <v>656.8955617097804</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7441,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339057</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077977</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102166</v>
+        <v>2393.393660462199</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.189385922801</v>
@@ -7496,7 +7496,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,34 +7508,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>700.1577228956174</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C43" t="n">
-        <v>531.2215399677106</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D43" t="n">
-        <v>381.1049005553748</v>
+        <v>371.6221203703324</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>223.7090267879393</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>76.8190792900289</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7602,19 +7602,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1161.426274415171</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>933.436723517154</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y43" t="n">
-        <v>712.6441443736238</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>921.770455879627</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>921.770455879627</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>921.770455879627</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>921.770455879627</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>510.7845510900194</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>95.71210093501588</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>95.71210093501588</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7666,34 +7666,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3197.788768583745</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>3197.788768583745</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7730,22 +7730,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>182.143086683856</v>
       </c>
       <c r="C46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1920.850034779555</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.083419349081</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U46" t="n">
-        <v>1409.980552474725</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.296064268838</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W46" t="n">
-        <v>865.8788942318776</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X46" t="n">
-        <v>637.8893433338602</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.0967641903301</v>
+        <v>363.7915515140957</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>144.4363991805478</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>116.4012961287067</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>82.97369176944363</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>87.83296830063492</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
-        <v>162.4747015415544</v>
+        <v>74.03418926528961</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971605</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>200.1003545949128</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -22606,16 +22606,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>162.5797212940404</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>182.205513512149</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>15.41997243790229</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459957</v>
       </c>
       <c r="X3" t="n">
-        <v>40.60044802738304</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098432</v>
       </c>
     </row>
     <row r="4">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>41.43628348521918</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22728,7 +22728,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917619</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378023</v>
+        <v>36.19408632378006</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>86.96510614773356</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>98.99741117027096</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>18.86898237295603</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>195.4337306849997</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>11.50893333199741</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X6" t="n">
-        <v>60.42531372028785</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22944,28 +22944,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>106.0961992911173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,28 +22986,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>36.19408632378008</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>60.53711821294252</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753914</v>
       </c>
       <c r="G8" t="n">
-        <v>32.38298246791419</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>4.968575157639769</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>63.64367339871032</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>137.6713744519706</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>67.42138441835215</v>
       </c>
     </row>
     <row r="10">
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>137.3777126496535</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>64.61205615750799</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>121.3504611604964</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>209.4610956967463</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>70.44609222240877</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.8301120625272</v>
+        <v>84.28894647426577</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>317.0092794716261</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>373.6346482223003</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.72864624436225</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.09439630143356</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>358.98812167996</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>262.3760751415337</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>201.6995902368609</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>156.594609616157</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>304.0065384866158</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>102.0272134555565</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>72.89675724940095</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>284.253929654053</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>41.33032051532405</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>219.6215666560267</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>91.26811680410444</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>183.2875889591581</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>284.1719029921767</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>284.1719029921768</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>118.2281213950247</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>246.7198403255703</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>23.25917518540791</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>113.4197768217114</v>
       </c>
       <c r="E31" t="n">
-        <v>104.4219494721156</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>262.7623799394761</v>
       </c>
       <c r="G32" t="n">
-        <v>337.9743263566729</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>95.31973221318518</v>
+        <v>34.45276913823312</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>108.8976542956632</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>66.94407426418115</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>34.45276913823321</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>337.9743263566734</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>290.3129182374927</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>180.7317593484373</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>293.4129523202033</v>
       </c>
       <c r="G41" t="n">
-        <v>121.0498792159529</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>167.470422918711</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.8219150297612</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>12.66894511512183</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>124.4562894637302</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>52.77216054947205</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.3889571555933</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>472696.0301089769</v>
+        <v>472696.0301089772</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>536219.3756474751</v>
+        <v>472696.0301089771</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732374.0231196635</v>
+        <v>472696.0301089769</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460698</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880521.5937460699</v>
+        <v>880521.5937460698</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.8802231801</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
         <v>323947.2440223746</v>
       </c>
       <c r="F2" t="n">
+        <v>323947.2440223747</v>
+      </c>
+      <c r="G2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="H2" t="n">
-        <v>323947.2440223743</v>
-      </c>
       <c r="I2" t="n">
-        <v>323947.2440223745</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="J2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223747</v>
       </c>
       <c r="K2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="L2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="M2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="N2" t="n">
+        <v>323947.2440223747</v>
+      </c>
+      <c r="O2" t="n">
         <v>323947.2440223745</v>
       </c>
-      <c r="M2" t="n">
-        <v>323947.2440223745</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="P2" t="n">
-        <v>323947.2440223745</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477421</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599825</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040622</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932021</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608611</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,13 +26420,13 @@
         <v>12732.5212819199</v>
       </c>
       <c r="C4" t="n">
-        <v>16333.27348544815</v>
+        <v>12732.5212819199</v>
       </c>
       <c r="D4" t="n">
-        <v>19973.84716017453</v>
+        <v>12732.5212819199</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712838</v>
       </c>
       <c r="F4" t="n">
         <v>11600.2349971284</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
@@ -26496,10 +26496,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501159.6520201634</v>
+        <v>-490806.0849380539</v>
       </c>
       <c r="C6" t="n">
-        <v>19723.35771601679</v>
+        <v>100550.8175827915</v>
       </c>
       <c r="D6" t="n">
-        <v>-137875.9118824468</v>
+        <v>100550.8175827915</v>
       </c>
       <c r="E6" t="n">
-        <v>-41466.26660111814</v>
+        <v>-389441.5940996211</v>
       </c>
       <c r="F6" t="n">
-        <v>234564.4791657919</v>
+        <v>237693.0495340468</v>
       </c>
       <c r="G6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.049534047</v>
       </c>
       <c r="H6" t="n">
-        <v>234564.4791657916</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="I6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="J6" t="n">
-        <v>185499.534437247</v>
+        <v>188628.1048055024</v>
       </c>
       <c r="K6" t="n">
-        <v>214956.0506153854</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="L6" t="n">
-        <v>164103.6722564716</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="M6" t="n">
-        <v>162473.1265497057</v>
+        <v>77236.60766616928</v>
       </c>
       <c r="N6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340468</v>
       </c>
       <c r="O6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="P6" t="n">
-        <v>234564.4791657916</v>
+        <v>237693.0495340466</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
@@ -26828,10 +26828,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657367</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682059</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246572</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761292</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246571</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,13 +31044,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31062,25 +31062,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31126,7 +31126,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31135,34 +31135,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628875</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31229,19 +31229,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32244,7 +32244,7 @@
         <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
         <v>781.7148990095023</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33681,7 +33681,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
         <v>99.83230779806951</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855722</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>156.5956149270086</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>98.29368706161284</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>99.08507489005518</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>134.4838456415744</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>535.1379358731701</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>86.19340501175041</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
